--- a/usage_statistics.xlsx
+++ b/usage_statistics.xlsx
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="B1" s="1" t="n">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2">
